--- a/result/Правила охорони праці під час експлуатації обладнання, що працює під тиском.xlsx
+++ b/result/Правила охорони праці під час експлуатації обладнання, що працює під тиском.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>Вопрос</t>
   </si>
@@ -25,7 +25,261 @@
     <t>Правильний ответ</t>
   </si>
   <si>
-    <t>Після досягнення граничного строку експлуатації обладнання під тиском, визначеного проектом, виробником, іншою нормативною документацією потрібно</t>
+    <t>Камера низького тиску редуктора повинна мати:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пружинний запобіжний клапан  відрегульований на відповідний дозволений тиск в ємності, в яку перепускається газ
+Манометр
+Все перелічене
+</t>
+  </si>
+  <si>
+    <t>Все перелічене</t>
+  </si>
+  <si>
+    <t>Технічний огляд балонів для ацетилену повинен здійснюватися на ацетиленових наповнювальних станціях не рідше ніж через:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 років
+3 роки
+5 років
+</t>
+  </si>
+  <si>
+    <t>5 років</t>
+  </si>
+  <si>
+    <t>Товщина заглушок, що використовуються для відключення обладнання під тиском повинна бути:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не менше товщини стінки самого обладнання
+Не менше товщини стінки патрубка на який ставиться заглушка
+Визначається розрахунком на міцність
+Не менше 8мм
+</t>
+  </si>
+  <si>
+    <t>Визначається розрахунком на міцність</t>
+  </si>
+  <si>
+    <t>На обладнання з яким тиском поширюються ці Правила?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Понад 0,7 кгс/см.кв
+Понад 0,5 бар
+Тиск залежить від температури газів
+</t>
+  </si>
+  <si>
+    <t>Понад 0,5 бар</t>
+  </si>
+  <si>
+    <t>Забороняється заповнювати газом несправні цистерни або бочки, якщо:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не проведений періодичний технічний огляд
+Відсутні належні пофарбування або написи
+Все перелічене
+</t>
+  </si>
+  <si>
+    <t>Яку різьбу повинні мати бокові штуцери вентилів для балонів, які наповнюються воднем та іншими горючими газами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ліву
+Праву
+Не має значення
+</t>
+  </si>
+  <si>
+    <t>Ліву</t>
+  </si>
+  <si>
+    <t>Роботодавець, який має намір експлуатувати обладнання під тиском, зобов’язаний:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Організувати періодичну перевірку знань виробничих інструкцій персоналом
+Забезпечити проведення технічних оглядів і експертного обстеження обладнання під тиском
+Всі відповіді вірні
+</t>
+  </si>
+  <si>
+    <t>Всі відповіді вірні</t>
+  </si>
+  <si>
+    <t>Після проведення модифікації (реконструкції та модернізації) суб’єкт господарювання, який проводив ці роботи, повинен оснастити обладнання під тиском маркувальною табличкою, укріпленою на видному місці, із зазначенням:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Назви суб’єкта господарювання, який проводив модифікацію (реконструкцію чи модернізацію), і його знак для товарів і послуг (за наявності)
+Дати наступної модифікації
+Все перелічене
+</t>
+  </si>
+  <si>
+    <t>Назви суб’єкта господарювання, який проводив модифікацію (реконструкцію чи модернізацію), і його знак для товарів і послуг (за наявності)</t>
+  </si>
+  <si>
+    <t>Безшовні стандартні балони місткістю від 12 до 55 л при зменшенні маси від 10 до 13,5 % і збільшенні їх місткості в межах від 2 до 2,5 % переводяться на тиск, знижений проти початково встановленого на:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15%
+25%
+50%
+75%
+</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>Якими параметрами може нормуватися котлова вода парового котла:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Відносна лужність
+Електропровідність
+Всі відповіді вірні
+</t>
+  </si>
+  <si>
+    <t>Ділянки елементів обладнання під тиском, доступні для дотику обслуговувальним персоналом, повинні бути покриті тепловою ізоляцією, що забезпечує температуру зовнішньої поверхні:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не більше 43° C за будь-якої температури навколишнього середовища
+Не більше 45° C за температури навколишнього середовища не більше 25° C
+Не більше 43° C за температури навколишнього середовища не більше 25° C
+</t>
+  </si>
+  <si>
+    <t>Не більше 43° C за температури навколишнього середовища не більше 25° C</t>
+  </si>
+  <si>
+    <t>Дозволяється для цілей ремонту, модифікації (реконструкції та модернізації) виготовлення зварних виробів із застосуванням у тому самому зварному вузлі різних методів зварювання?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Так
+Ні
+</t>
+  </si>
+  <si>
+    <t>Так</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Призначити наказом відповідального працівника за справний стан і безпечну експлуатацію обладнання під тиском, який пройшов навчання та перевірку знань з охорони праці у встановленому порядку
+Призначити в необхідній кількості обслуговувальний персонал, який пройшов навчання з охорони праці і має відповідну кваліфікацію
+Розробити і затвердити виробничу інструкцію для персоналу, який обслуговує обладнання під тиском
+Всі відповіді вірні
+</t>
+  </si>
+  <si>
+    <t>Хто проводить технічний огляд обладнання, що працює під тиском?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Інспектор територіального органу Держпраці
+Роботодавець ( власник обладнання )
+Експерт технічний
+Працівник, відповідальний за справний стан і безпечну експлуатацію обладнання
+</t>
+  </si>
+  <si>
+    <t>Експерт технічний</t>
+  </si>
+  <si>
+    <t>Тиск води при випробуванні має контролюватись:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Двома манометрами, із яких один повинен бути класу точності не нижче 1,5
+Двома манометрами з діаметром корпусу 160 мм , із яких один повинен бути класу точності не нижче 1,5
+Двома манометрами класу точності не нижче 1,5
+</t>
+  </si>
+  <si>
+    <t>Двома манометрами, із яких один повинен бути класу точності не нижче 1,5</t>
+  </si>
+  <si>
+    <t>Технічний огляд балонів, за винятком балонів для ацетилену, включає:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Огляд внутрішньої і зовнішньої поверхонь балонів
+Пневматичне випробування
+Перевірку стану пористої маси
+</t>
+  </si>
+  <si>
+    <t>Огляд внутрішньої і зовнішньої поверхонь балонів</t>
+  </si>
+  <si>
+    <t>Періодичний технічний огляд обладнання під тиском (за винятком трубопроводів пари та гарячої води) проводиться у строки, визначені експлуатаційними документами виробника, але не рідше:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одного разу на 2 роки - зовнішній і внутрішній огляди
+Одного разу на 8 років - гідростатичне випробування
+Одного разу на 6 років - пневматичне випробування
+</t>
+  </si>
+  <si>
+    <t>Одного разу на 8 років - гідростатичне випробування</t>
+  </si>
+  <si>
+    <t>Обладнання під тиском має бути негайно зупинено і відключено персоналом у випадках:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зниження витрати води через водогрійний котел нижче мінімально допустимого значення
+Зниження тиску води в тракті водогрійного котла нижче допустимого
+Погасання факелів в топці при камерному спалюванні палива
+Всі відповіді вірні
+</t>
+  </si>
+  <si>
+    <t>Експлуатація обладнання під тиском за призначенням під час його ремонту:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не дозволяється
+Не допускається
+Дозволяється за наказом роботодавця
+</t>
+  </si>
+  <si>
+    <t>Не дозволяється</t>
+  </si>
+  <si>
+    <t>Вимоги до складів балонів:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Склади для зберігання балонів, заповнених газами, повинні бути одноповерховими з покриттями легкого типу і не мати горищних приміщень. Скло на вікнах і дверях повинно бути матовим або пофарбованим у білий колір
+Скло на вікнах і дверях повинно захищатися гратами
+Все перелічене
+</t>
+  </si>
+  <si>
+    <t>Склади для зберігання балонів, заповнених газами, повинні бути одноповерховими з покриттями легкого типу і не мати горищних приміщень. Скло на вікнах і дверях повинно бути матовим або пофарбованим у білий колір</t>
+  </si>
+  <si>
+    <t>Технічна документація на модифікацію (реконструкцію та модернізацію) має містити:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дозвіл Держпраці на виконання робіт по модифікації (реконструкції та модернізації)
+Наказ власника обладнання на проведення робіт по модифікації (реконструкції та модернізації)
+Технічні умови на модифікацію (реконструкцію чи модернізацію)
+</t>
+  </si>
+  <si>
+    <t>Технічні умови на модифікацію (реконструкцію чи модернізацію)</t>
+  </si>
+  <si>
+    <t>На які балони повинні встановлюватися запобіжні клапани?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Місткістю більше 40 л і тиском більше 16 бар
+Місткістю більше 55 л
+Місткістю більше 100 л
+Тиском більше 100 бар
+</t>
+  </si>
+  <si>
+    <t>Місткістю більше 100 л</t>
+  </si>
+  <si>
+    <t>Після досягнення граничного строку експлуатації обладнання під тиском, визначеного проектом, виробником, іншою нормативною документацією потрібно:</t>
   </si>
   <si>
     <t xml:space="preserve">Продовжувати експлуатацію при меншому тиску та температурі
@@ -37,16 +291,26 @@
     <t>Заборонити експлуатацію обладнання</t>
   </si>
   <si>
-    <t>Камера низького тиску редуктора повинна мати: пружинний запобіжний клапан і манометр, відрегульований на відповідний дозволений тиск в ємності, в яку перепускається газ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пружинний запобіжний клапан  відрегульований на відповідний дозволений тиск в ємності, в яку перепускається газ
-Манометр
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Все перелічене</t>
+    <t>Перевірка справності роботи манометрів, запобіжних клапанів, покажчиків рівня води і живильних пристроїв для обладнання  з робочим тиском до 14 бар включно повинна проводитись в такі строки:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не рідше одного разу на зміну
+Не рідше одного разу на добу
+Не рідше одного разу на місяць
+Згідно з графіком, затвердженим роботодавцем
+</t>
+  </si>
+  <si>
+    <t>Не рідше одного разу на зміну</t>
+  </si>
+  <si>
+    <t>Які написи наносяться на магістральні трубопроводи?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер магістралі
+Стрілки, що вказують напрямок руху робочого середовища
+Всі відповіді вірні
+</t>
   </si>
   <si>
     <t>Зовнішній огляд трубопроводів пари та гарячої води проводиться:</t>
@@ -62,136 +326,6 @@
     <t>Не менше одного разу протягом трьох років</t>
   </si>
   <si>
-    <t>Якими параметрами може нормуватися котлова вода водогрійного котла:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Карбонатна жорсткість
-Прозорість
-Всі відповіді вірні
-</t>
-  </si>
-  <si>
-    <t>Всі відповіді вірні</t>
-  </si>
-  <si>
-    <t>Висота складських приміщень для балонів від підлоги до нижчих виступаючих частин покрівельного покриття повинна бути</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не менше 2,5 м
-Не менше 2,75 м
-Не менше 3 м
-Не менше 3,25 м
-</t>
-  </si>
-  <si>
-    <t>Не менше 3,25 м</t>
-  </si>
-  <si>
-    <t>Результати випробувань механічних властивостей нерознімного з’єднання вважаються задовільними, якщо кут вигину для вуглецевих сталей:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">не менше 60°
-не менше 80°
-не менше 90°
-не менше 120°
-</t>
-  </si>
-  <si>
-    <t>не менше 120°</t>
-  </si>
-  <si>
-    <t>Кожний вентиль балонів для вибухонебезпечних горючих речовин, шкідливих речовин 1 і 2 класів небезпеки повинен бути забезпечений: заглушкою, яка накручується на боковий штуцер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Заглушкою, яка накручується на боковий штуцер
-Паспортом балону
-Паспортом отруйної речовини
-</t>
-  </si>
-  <si>
-    <t>Заглушкою, яка накручується на боковий штуцер</t>
-  </si>
-  <si>
-    <t>Позачерговий технічний огляд обладнання під тиском має бути проведений в таких випадках:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Якщо обладнання під тиском не експлуатувалося більше 12 місяців
-Якщо обладнання під тиском було демонтовано і встановлено на новому місці
-все перелічене
-</t>
-  </si>
-  <si>
-    <t>все перелічене</t>
-  </si>
-  <si>
-    <t>Після проведення модифікації додається і зберігається разом із журналом нагляду (паспортом) така документація:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">технічні умови на модифікацію
-креслення загального вигляду з основними габаритними розмірами, якщо вони змінилися, та новими технічними характеристиками в разі їх зміни
-електрична принципова схема
-</t>
-  </si>
-  <si>
-    <t>креслення загального вигляду з основними габаритними розмірами, якщо вони змінилися, та новими технічними характеристиками в разі їх зміни</t>
-  </si>
-  <si>
-    <t>Балони з газом, які встановлюються в приміщеннях, повинні знаходитися на відстані не менше:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,5  м від радіаторів опалення та інших опалювальних приладів і печей та не менше ніж на 5 м від джерел тепла з відкритим вогнем
-1 м від радіаторів опалення та інших опалювальних приладів і печей та не менше ніж на 5 м від джерел тепла з відкритим вогнем
-5 м. один від одного
-</t>
-  </si>
-  <si>
-    <t>1 м від радіаторів опалення та інших опалювальних приладів і печей та не менше ніж на 5 м від джерел тепла з відкритим вогнем</t>
-  </si>
-  <si>
-    <t>Безшовні стандартні балони місткістю від 12 до 55 л при зменшенні маси від 7,5 до 10 % і збільшенні їх місткості в межах від 1,5 до 2 % переводяться на тиск, знижений проти початково встановленого на:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10%
-15%
-25%
-50%
-</t>
-  </si>
-  <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>Які написи наносяться на магістральні трубопроводи?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номер магістралі
-Стрілки, що вказують напрямок руху робочого середовища
-Всі відповіді вірні
-</t>
-  </si>
-  <si>
-    <t>Ці Правила не поширюються на:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Посудини і балони місткістю не більше 25 л, в яких добуток тиску в барах на місткість в літрах не перевищує 200
-Посудини, що працюють під тиском, який виникає внаслідок вибуху в самих посудинах відповідно до технологічного процесу
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Хто повинен розробляти інструкції з ведення водно-хімічного режиму та інструкції з експлуатації установки (установок) для докотлової обробки води:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Завод-виготовлювач котла
-Роботодавець (власник котла)
-Працівник, відповідальний за справний стан і безпечну експлуатацію котла
-Налагоджувальна організація
-</t>
-  </si>
-  <si>
-    <t>Налагоджувальна організація</t>
-  </si>
-  <si>
     <t>Позачерговий технічний огляд трубопроводів пари та гарячої води необхідно проводити  в таких випадках:</t>
   </si>
   <si>
@@ -201,167 +335,38 @@
 </t>
   </si>
   <si>
-    <t>Якими параметрами може нормуватися живильна і підживлювальна  вода котлів:</t>
-  </si>
-  <si>
-    <t>На які котельні поширюються вимоги цих Правил</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Котельні мобільні установки (пересувні і транспортабельні)
-Енергопоїзди
+    <t>Працівник, відповідальний за справний стан і безпечну експлуатацію обладнання під тиском, зобов’язаний:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проводити періодично (не рідше одного разу на рік) обстеження обладнання під тиском, а саме гідростатичне випробування робочим тиском, внутрішній та зовнішній огляди
+Щодня в робочі дні перевіряти записи в змінному журналі і проставляти в ньому свої підписи
 Все перелічене
 </t>
   </si>
   <si>
-    <t>На яке обладнання не поширюються вимоги цих Правил</t>
-  </si>
-  <si>
-    <t xml:space="preserve">посудини і балони місткістю не більше 15 л, в яких добуток тиску в барах на місткість в літрах не перевищує 200
-проточні газові водонагрівачі
-котли з об’ємом парового і водяного простору 12 л і менше, у яких добуток робочого тиску в барах на об’єм в літрах не перевищує 200
-все перелічене
-</t>
-  </si>
-  <si>
-    <t>проточні газові водонагрівачі</t>
-  </si>
-  <si>
-    <t>Перевірка пористої маси балонів для ацетилену повинна здійснюватися:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не рідше ніж через 24 місяці
-При проведенні технічного огляду
-Всі відповіді вірні
-</t>
-  </si>
-  <si>
-    <t>Виведення обладнання під тиском в ремонт здійснюється:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">працівником, відповідальним за справний стан і безпечну експлуатацію, відповідно до графіка ремонту, затвердженого роботодавцем
-згідно вимог виробника
-все перелічене
-</t>
-  </si>
-  <si>
-    <t>працівником, відповідальним за справний стан і безпечну експлуатацію, відповідно до графіка ремонту, затвердженого роботодавцем</t>
-  </si>
-  <si>
-    <t>Технічний огляд балонів для ацетилену повинен складатися із:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гідравлічного випробування
-Пневматичного випробування
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Пневматичного випробування</t>
-  </si>
-  <si>
-    <t>Якщо виробник обладнання під тиском вводить більш суворі норми з експлуатації, ніж ті, що зазначені в цих Правилах, необхідно дотримуватися умов:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">викладених в цих Правилах
-зазначених виробником
-встановлених власником обладнання
-</t>
-  </si>
-  <si>
-    <t>зазначених виробником</t>
-  </si>
-  <si>
-    <t>Який має бути гідростатичний випробувальний тиск для посудин, що працюють під тиском повітря або азоту у випадках, коли це не визначено заводом-виготовлювачем посудини:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,25Рроб
-1,25Рроб, але не менше ніж 2бар
-1,5Рроб
-1,43Рроб
-</t>
-  </si>
-  <si>
-    <t>1,5Рроб</t>
-  </si>
-  <si>
-    <t>Вимоги до складів для балонів з вибухо- і пожежонебезпечними газами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Склади для балонів з вибухо- і пожежонебезпечними газами повинні знаходитись у зоні блискавкозахисту
-Склади для балонів з вибухо- і пожежонебезпечними газами повинні цілодобово охоронятися
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Склади для балонів з вибухо- і пожежонебезпечними газами повинні знаходитись у зоні блискавкозахисту</t>
-  </si>
-  <si>
-    <t>На які бойлери поширюються вимоги цих правил</t>
-  </si>
-  <si>
-    <t xml:space="preserve">З електоро обігріванням
-З водяним теплоносієм
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>З водяним теплоносієм</t>
-  </si>
-  <si>
-    <t>Приймання в експлуатацію нововстановленого обладнання під тиском здійснюється:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Згідно з вимогами НД
-Згідно з вимогами виробника
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Згідно з вимогами НД</t>
-  </si>
-  <si>
-    <t>Для яких балонів перевірка маси і місткості не проводиться?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ємністю до 12 л включно
-Зварних балонів ємністю від 12 л до 55 л включно
-Ємністю понад 55 л
-Всі відповіді вірні
-</t>
-  </si>
-  <si>
-    <t>На які посудини наповнені водою поширюються вимоги цих Правил</t>
-  </si>
-  <si>
-    <t xml:space="preserve">посудини, що працюють під тиском води з температурою вище 110° C
-посудини, що працюють під тиском води з температурою вище 115° C
-на всі посудини що працюють під тиском понад 0,5 бар незалежно від температури
-</t>
-  </si>
-  <si>
-    <t>посудини, що працюють під тиском води з температурою вище 110° C</t>
-  </si>
-  <si>
-    <t>Що вибивається на горловині балона для ацетилену після заповнення його пористою масою і розчинником?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Маса пористої маси і розчинника
-Маса балона без ковпака, але з пористою масою і розчинником, башмаком, кільцем і вентилем
-Маса балона з ковпаком, пористою масою і розчинником, башмаком, кільцем і вентилем
-Маса балона без ковпака, башмака, кільця і вентиля, але з пористою масою і розчинником
-</t>
-  </si>
-  <si>
-    <t>Маса балона без ковпака, але з пористою масою і розчинником, башмаком, кільцем і вентилем</t>
-  </si>
-  <si>
-    <t>Правила охорони праці під час експлуатації обладнання, що працює під тиском поширюються на:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Посудини, що працюють під тиском пари або газу, вищим 0,5 бар, барокамери
-Посудини і балони місткістю не більше 25 л, в яких добуток тиску в барах на місткість в літрах не перевищує 500
-Всі відповіді вірні
-</t>
+    <t>Періодична продувка парового котла проводиться для:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Видалення відкладення накипу і шламу
+Підвищення відносної лужності котлової води
+Зниження відносної лужності котлової води
+Зменшення наявності кисню в котловій воді
+</t>
+  </si>
+  <si>
+    <t>Видалення відкладення накипу і шламу</t>
+  </si>
+  <si>
+    <t>Будь-які зміни технічної документації:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не допускаються
+Можливі за погодженням із виробником, який затвердив зазначену документацію
+Вносяться проектантами
+</t>
+  </si>
+  <si>
+    <t>Можливі за погодженням із виробником, який затвердив зазначену документацію</t>
   </si>
 </sst>
 </file>
@@ -762,260 +767,260 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1037,7 +1042,7 @@
         <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
